--- a/Assets/Data/Table/Convert/Reward_RewardGroup.xlsx
+++ b/Assets/Data/Table/Convert/Reward_RewardGroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBCE063-CE51-491D-BEF3-534EF2661C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D82831-DC7D-43C4-8BF8-1A3DE47A80CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RewardGroup" sheetId="9" r:id="rId1"/>
@@ -220,9 +220,8 @@
 Item</t>
   </si>
   <si>
-    <t>Enum.Unit.
+    <t>Em.Unit.
 RandomType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -356,48 +355,48 @@
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -698,20 +697,20 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="35.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.3984375" style="19" customWidth="1"/>
     <col min="3" max="3" width="31" style="19" customWidth="1"/>
     <col min="4" max="5" width="29" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="74.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="73.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -740,7 +739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -769,7 +768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -798,7 +797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>19</v>
       </c>
@@ -827,7 +826,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>21</v>
       </c>
@@ -856,7 +855,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>20</v>
       </c>
@@ -885,7 +884,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -914,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>24</v>
       </c>
@@ -943,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>25</v>
       </c>
@@ -972,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>33</v>
       </c>
@@ -1001,7 +1000,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>34</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>35</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>36</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>37</v>
       </c>
@@ -1117,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>42</v>
       </c>
@@ -1146,7 +1145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>44</v>
       </c>
